--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200312.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200312.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9593" uniqueCount="3296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9635" uniqueCount="3297">
   <si>
     <t>序号</t>
   </si>
@@ -10287,6 +10287,12 @@
   </si>
   <si>
     <t>http://wsjkw.cq.gov.cn/tzgg/20200313/259652.html</t>
+  </si>
+  <si>
+    <t>2020年3月12日0—24时，重庆市无新冠肺炎新增确诊病例报告，新增治愈出院病例10例。
+新增治愈出院病例中，江北区1例、沙坪坝区1例、九龙坡区2例、南岸区1例、綦江区1例、铜梁区1例、潼南区1例、丰都县2例。
+截至3月12日24时，重庆市现有在院确诊病例6例（无重型和危重型病例），累计死亡病例6例，累计治愈出院病例564例，累计报告确诊病例576例。累计追踪到密切接触者23681人，已解除医学观察23595人，尚有86人正在接受医学观察。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10462,7 +10468,7 @@
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10740,8 +10746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K44" activeCellId="1" sqref="O44 K44"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10910,7 +10916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.2">
+    <row r="2" spans="1:40" ht="60">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -10955,7 +10961,9 @@
       <c r="T2" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U2" s="23"/>
+      <c r="U2" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V2" s="22" t="s">
         <v>3295</v>
       </c>
@@ -10978,7 +10986,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="16.2">
+    <row r="3" spans="1:40" ht="60">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11023,7 +11031,9 @@
       <c r="T3" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U3" s="23"/>
+      <c r="U3" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V3" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11043,7 +11053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16.2">
+    <row r="4" spans="1:40" ht="60">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11086,7 +11096,9 @@
       <c r="T4" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U4" s="23"/>
+      <c r="U4" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V4" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11106,7 +11118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16.2">
+    <row r="5" spans="1:40" ht="60">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11149,7 +11161,9 @@
       <c r="T5" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U5" s="23"/>
+      <c r="U5" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V5" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11169,7 +11183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16.2">
+    <row r="6" spans="1:40" ht="60">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11212,7 +11226,9 @@
       <c r="T6" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U6" s="23"/>
+      <c r="U6" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V6" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16.2">
+    <row r="7" spans="1:40" ht="60">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11275,7 +11291,9 @@
       <c r="T7" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U7" s="23"/>
+      <c r="U7" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V7" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11295,7 +11313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16.2">
+    <row r="8" spans="1:40" ht="60">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -11340,7 +11358,9 @@
       <c r="T8" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U8" s="23"/>
+      <c r="U8" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V8" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11360,7 +11380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16.2">
+    <row r="9" spans="1:40" ht="60">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11405,7 +11425,9 @@
       <c r="T9" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U9" s="23"/>
+      <c r="U9" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V9" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11425,7 +11447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16.2">
+    <row r="10" spans="1:40" ht="60">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -11472,7 +11494,9 @@
       <c r="T10" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U10" s="23"/>
+      <c r="U10" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V10" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11492,7 +11516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16.2">
+    <row r="11" spans="1:40" ht="60">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11537,7 +11561,9 @@
       <c r="T11" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U11" s="23"/>
+      <c r="U11" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V11" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11557,7 +11583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16.2">
+    <row r="12" spans="1:40" ht="60">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -11596,7 +11622,9 @@
       <c r="T12" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U12" s="23"/>
+      <c r="U12" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V12" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11616,7 +11644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16.2">
+    <row r="13" spans="1:40" ht="60">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11659,7 +11687,9 @@
       <c r="T13" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U13" s="23"/>
+      <c r="U13" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V13" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11679,7 +11709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16.2">
+    <row r="14" spans="1:40" ht="60">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -11722,7 +11752,9 @@
       <c r="T14" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U14" s="23"/>
+      <c r="U14" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V14" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11742,7 +11774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16.2">
+    <row r="15" spans="1:40" ht="60">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11785,7 +11817,9 @@
       <c r="T15" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U15" s="23"/>
+      <c r="U15" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V15" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11805,7 +11839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16.2">
+    <row r="16" spans="1:40" ht="60">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -11848,7 +11882,9 @@
       <c r="T16" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U16" s="23"/>
+      <c r="U16" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V16" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11868,7 +11904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16.2">
+    <row r="17" spans="1:29" ht="60">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -11911,7 +11947,9 @@
       <c r="T17" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U17" s="23"/>
+      <c r="U17" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V17" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11931,7 +11969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16.2">
+    <row r="18" spans="1:29" ht="60">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -11974,7 +12012,9 @@
       <c r="T18" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U18" s="23"/>
+      <c r="U18" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V18" s="22" t="s">
         <v>3295</v>
       </c>
@@ -11994,7 +12034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16.2">
+    <row r="19" spans="1:29" ht="60">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12033,7 +12073,9 @@
       <c r="T19" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U19" s="23"/>
+      <c r="U19" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V19" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12053,7 +12095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16.2">
+    <row r="20" spans="1:29" ht="60">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -12098,7 +12140,9 @@
       <c r="T20" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U20" s="23"/>
+      <c r="U20" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V20" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12118,7 +12162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.2">
+    <row r="21" spans="1:29" ht="60">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12161,7 +12205,9 @@
       <c r="T21" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U21" s="23"/>
+      <c r="U21" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V21" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12181,7 +12227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.2">
+    <row r="22" spans="1:29" ht="60">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -12224,7 +12270,9 @@
       <c r="T22" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U22" s="23"/>
+      <c r="U22" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V22" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12244,7 +12292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16.2">
+    <row r="23" spans="1:29" ht="60">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -12289,7 +12337,9 @@
       <c r="T23" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U23" s="23"/>
+      <c r="U23" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V23" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12309,7 +12359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16.2">
+    <row r="24" spans="1:29" ht="60">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -12354,7 +12404,9 @@
       <c r="T24" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U24" s="23"/>
+      <c r="U24" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V24" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12374,7 +12426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16.2">
+    <row r="25" spans="1:29" ht="60">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -12417,7 +12469,9 @@
       <c r="T25" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U25" s="23"/>
+      <c r="U25" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V25" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12437,7 +12491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16.2">
+    <row r="26" spans="1:29" ht="60">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -12482,7 +12536,9 @@
       <c r="T26" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U26" s="23"/>
+      <c r="U26" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V26" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12502,7 +12558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16.2">
+    <row r="27" spans="1:29" ht="60">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -12545,7 +12601,9 @@
       <c r="T27" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U27" s="23"/>
+      <c r="U27" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V27" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12565,7 +12623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16.2">
+    <row r="28" spans="1:29" ht="60">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -12608,7 +12666,9 @@
       <c r="T28" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U28" s="23"/>
+      <c r="U28" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V28" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12628,7 +12688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.2">
+    <row r="29" spans="1:29" ht="60">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -12671,7 +12731,9 @@
       <c r="T29" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U29" s="23"/>
+      <c r="U29" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V29" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12691,7 +12753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16.2">
+    <row r="30" spans="1:29" ht="60">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -12736,7 +12798,9 @@
       <c r="T30" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U30" s="23"/>
+      <c r="U30" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V30" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12756,7 +12820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16.2">
+    <row r="31" spans="1:29" ht="60">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -12799,7 +12863,9 @@
       <c r="T31" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U31" s="23"/>
+      <c r="U31" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V31" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12819,7 +12885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.2">
+    <row r="32" spans="1:29" ht="60">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -12862,7 +12928,9 @@
       <c r="T32" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U32" s="23"/>
+      <c r="U32" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V32" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12882,7 +12950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16.2">
+    <row r="33" spans="1:29" ht="60">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -12925,7 +12993,9 @@
       <c r="T33" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U33" s="23"/>
+      <c r="U33" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V33" s="22" t="s">
         <v>3295</v>
       </c>
@@ -12945,7 +13015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="16.2">
+    <row r="34" spans="1:29" ht="60">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -12988,7 +13058,9 @@
       <c r="T34" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U34" s="23"/>
+      <c r="U34" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V34" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13008,7 +13080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="16.2">
+    <row r="35" spans="1:29" ht="60">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -13051,7 +13123,9 @@
       <c r="T35" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U35" s="23"/>
+      <c r="U35" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V35" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13071,7 +13145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16.2">
+    <row r="36" spans="1:29" ht="60">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -13114,7 +13188,9 @@
       <c r="T36" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U36" s="23"/>
+      <c r="U36" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V36" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13134,7 +13210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16.2">
+    <row r="37" spans="1:29" ht="60">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -13177,7 +13253,9 @@
       <c r="T37" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U37" s="23"/>
+      <c r="U37" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V37" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13197,7 +13275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="16.2">
+    <row r="38" spans="1:29" ht="60">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -13240,7 +13318,9 @@
       <c r="T38" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U38" s="23"/>
+      <c r="U38" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V38" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13260,7 +13340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16.2">
+    <row r="39" spans="1:29" ht="60">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -13303,7 +13383,9 @@
       <c r="T39" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U39" s="23"/>
+      <c r="U39" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V39" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13323,7 +13405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="16.2">
+    <row r="40" spans="1:29" ht="60">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -13366,7 +13448,9 @@
       <c r="T40" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U40" s="23"/>
+      <c r="U40" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V40" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13386,7 +13470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="16.2">
+    <row r="41" spans="1:29" ht="60">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -13429,7 +13513,9 @@
       <c r="T41" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U41" s="23"/>
+      <c r="U41" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V41" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13449,7 +13535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.2">
+    <row r="42" spans="1:29" ht="60">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -13492,7 +13578,9 @@
       <c r="T42" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U42" s="23"/>
+      <c r="U42" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V42" s="22" t="s">
         <v>3295</v>
       </c>
@@ -13512,7 +13600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16.2">
+    <row r="43" spans="1:29" ht="60">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -13555,7 +13643,9 @@
       <c r="T43" s="21">
         <v>43903.375</v>
       </c>
-      <c r="U43" s="23"/>
+      <c r="U43" s="23" t="s">
+        <v>3296</v>
+      </c>
       <c r="V43" s="22" t="s">
         <v>3295</v>
       </c>
